--- a/2 semester/LogicBase/WorkSpace/Lab6/Calc_Ivan.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab6/Calc_Ivan.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4805FA-D2A8-457C-9501-765429340BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F446510A-50BE-4890-B8B8-3643DDB4195A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2775" yWindow="2775" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -92,94 +93,16 @@
     <t>ZF = 0</t>
   </si>
   <si>
-    <t>0 1101 0110 1100 0011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 1000 1011 0000 1111 </t>
-  </si>
-  <si>
     <t>0 1000 1011 0000 1111</t>
   </si>
   <si>
     <t>0 0110 1011 0110 0010</t>
   </si>
   <si>
-    <t>1 0111 0100 1111 0001</t>
-  </si>
-  <si>
-    <t>1 1110 0000 0101 0011</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1 1111 1010 1101</t>
-    </r>
-  </si>
-  <si>
-    <t>1 1111 1101 0110 1000</t>
-  </si>
-  <si>
     <t>Py</t>
   </si>
   <si>
-    <t>1000101 - 11</t>
-  </si>
-  <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>'1000 0010</t>
-  </si>
-  <si>
-    <t>1000 0010</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100 0001 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>111 1101 0110 1000 0000 0000</t>
-    </r>
   </si>
   <si>
     <t>Проверка</t>
@@ -352,12 +275,90 @@
       <t>001 1011 0011 1000 0101 0000</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">0 0111 0111 0001 0100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1001 1011 0011 1000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1001 1011 0011 1000 </t>
+  </si>
+  <si>
+    <t>0 0011 1011 1000 1010</t>
+  </si>
+  <si>
+    <t>1 0110 0100 1100 1000</t>
+  </si>
+  <si>
+    <t>1 1010 0000 0101 0010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>101 1111 1010 1101</t>
+    </r>
+  </si>
+  <si>
+    <t>1000101 - 1</t>
+  </si>
+  <si>
+    <t>1 1011 1111 0101 1010</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100 0010 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011 1111 0101 1010 0000 0000</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +417,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -575,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -609,6 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -675,6 +684,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -696,16 +712,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>554748</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>143214</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38285</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>545562</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -728,8 +744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7515225" y="619125"/>
-          <a:ext cx="2429214" cy="1324160"/>
+          <a:off x="11878002" y="39413"/>
+          <a:ext cx="2421331" cy="1312665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1064,13 +1080,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="147" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
     <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1078,18 +1098,18 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" t="s">
         <v>6</v>
       </c>
@@ -1099,20 +1119,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1122,20 +1142,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,66 +1165,70 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="N6" s="19"/>
+    </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="I8" s="9"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="F9" s="24" t="s">
+      <c r="B9" s="25"/>
+      <c r="F9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
@@ -1214,72 +1238,73 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="11"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="G13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="42"/>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="31"/>
+      <c r="B14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="F15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -1304,42 +1329,42 @@
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="F18" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="24"/>
+        <v>27</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="25"/>
       <c r="I19" s="12" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1354,24 +1379,24 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1379,51 +1404,51 @@
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
+      <c r="A24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="24"/>
+      <c r="B25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="25"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="29"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="30"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="C27">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="E28" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="24"/>
+      <c r="E28" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="25"/>
       <c r="G28" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>2</v>
@@ -1431,31 +1456,31 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="19"/>
+      <c r="A29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="20"/>
       <c r="G29" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="21"/>
+      <c r="A30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="22"/>
       <c r="C30" s="15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -1465,39 +1490,39 @@
       <c r="I30" s="14"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
+      <c r="A33" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="F35" s="24" t="s">
+      <c r="B35" s="25"/>
+      <c r="F35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="10" t="s">
         <v>12</v>
       </c>
@@ -1507,11 +1532,11 @@
       <c r="E36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="F36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1519,59 +1544,59 @@
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="25"/>
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
+      <c r="F39" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="31"/>
+      <c r="B40" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="32"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="31"/>
+      <c r="G41" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="32"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -1579,7 +1604,7 @@
         <v>21</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>23</v>
@@ -1596,11 +1621,11 @@
       <c r="A44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="B44" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="I44" s="9"/>
@@ -1613,24 +1638,24 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
       <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
       <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1638,34 +1663,34 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27"/>
+      <c r="A49" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="29"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="30"/>
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1677,43 +1702,43 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
-      <c r="F53" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="24"/>
+      <c r="F53" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="25"/>
       <c r="H53" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" s="19"/>
+      <c r="A54" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" s="20"/>
       <c r="H54" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="21"/>
+      <c r="A55" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="22"/>
       <c r="C55" s="18" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
